--- a/biology/Zoologie/Guibemantis_kathrinae/Guibemantis_kathrinae.xlsx
+++ b/biology/Zoologie/Guibemantis_kathrinae/Guibemantis_kathrinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guibemantis kathrinae est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guibemantis kathrinae est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 500 et 840 m d'altitude dans les environs d'Andapa, dans le Nord-Est, et d'An'Ala, dans l'est de l'île[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 500 et 840 m d'altitude dans les environs d'Andapa, dans le Nord-Est, et d'An'Ala, dans l'est de l'île,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 3 spécimens mâles adultes observés lors de la description originale mesurent entre 56,7 mm et 58,6 mm de longueur standard[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 3 spécimens mâles adultes observés lors de la description originale mesurent entre 56,7 mm et 58,6 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, kathrinae, lui a été donné en l'honneur de Kathrin Schmidt en reconnaissance de son aide dans l'étude des amphibiens et reptiles malgaches ; ses enregistrements de chants d'appel à Andapa ont notamment permis une clarification dans les relations et la distribution des différentes espèces du groupe Mantidactylus depressiceps[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, kathrinae, lui a été donné en l'honneur de Kathrin Schmidt en reconnaissance de son aide dans l'étude des amphibiens et reptiles malgaches ; ses enregistrements de chants d'appel à Andapa ont notamment permis une clarification dans les relations et la distribution des différentes espèces du groupe Mantidactylus depressiceps.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Glaw, Vences &amp; Gossmann, 2000 : A new species of Mantidactylus (subgenus Guibemantis) from Madagascar, with a comparative survey of internal femoral gland structure in the genus (Amphibia: Ranidae: Mantellinae). Journal of Natural History, vol. 34, p. 1135-1154 (texte intégral).</t>
         </is>
